--- a/固废资料/固废项目进度表.xlsx
+++ b/固废资料/固废项目进度表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEASpace\document\固废资料\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123F5142-1B9F-4FAD-95A8-0955D0CFB6A8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="8376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15825" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,18 +16,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{72871052-0AD5-41E2-BEE0-D6134521205A}">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -42,7 +35,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -51,13 +43,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{9DBDF9BA-CCA1-4A1D-B4DF-35E816160FE1}">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -66,7 +57,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -75,13 +65,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{C4E136CB-1DC4-4B42-9046-4276CB27F0CD}">
+    <comment ref="B11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -90,7 +79,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -99,13 +87,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{2D128982-4274-4E32-94C9-492AB291E301}">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -114,7 +101,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -123,13 +109,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{72667F40-E7CE-444F-8A18-9681FCF3421A}">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -138,7 +123,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -152,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>时间</t>
   </si>
@@ -197,9 +181,15 @@
     <t>10.30-10.31</t>
   </si>
   <si>
+    <t>11.1-11.5</t>
+  </si>
+  <si>
     <t>11.6-11.10</t>
   </si>
   <si>
+    <t>11.12-11.15</t>
+  </si>
+  <si>
     <t>项目立项阶段</t>
   </si>
   <si>
@@ -243,6 +233,9 @@
   </si>
   <si>
     <t>首页统计数据分析接口</t>
+  </si>
+  <si>
+    <t>农户源头分类</t>
   </si>
   <si>
     <t>项目设计开发阶段</t>
@@ -272,8 +265,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,26 +303,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,8 +472,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -409,20 +719,280 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -452,26 +1022,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,27 +1049,92 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -789,78 +1421,81 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="4" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="13" width="13.6640625" customWidth="1"/>
+    <col min="3" max="4" width="12.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.8833333333333" customWidth="1"/>
+    <col min="9" max="9" width="14.1083333333333" customWidth="1"/>
+    <col min="10" max="10" width="12.4416666666667" customWidth="1"/>
+    <col min="11" max="12" width="13.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,7 +1506,7 @@
         <v>9.27</v>
       </c>
       <c r="F3" s="1">
-        <v>9.2799999999999994</v>
+        <v>9.28</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -885,487 +1520,540 @@
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="1">
-        <v>11.1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="29">
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="30"/>
+    </row>
+    <row r="5" ht="22.05" customHeight="1" spans="1:14">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" ht="22.05" customHeight="1" spans="1:14">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+    </row>
+    <row r="7" ht="22.05" customHeight="1" spans="1:14">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="30"/>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:14">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:14">
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:14">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:14">
       <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:14">
       <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:14">
       <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+    </row>
+    <row r="15" ht="22.05" customHeight="1" spans="1:14">
       <c r="A15" s="1">
         <v>7</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+    </row>
+    <row r="16" ht="22.05" customHeight="1" spans="1:14">
       <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+    </row>
+    <row r="17" ht="22.05" customHeight="1" spans="1:14">
       <c r="A17" s="1">
         <v>9</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+    </row>
+    <row r="18" ht="21" customHeight="1" spans="1:14">
       <c r="A18" s="1">
         <v>10</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="B18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+    </row>
+    <row r="19" ht="21" customHeight="1" spans="1:14">
+      <c r="A19" s="1">
+        <v>11</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="33"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="34"/>
+    </row>
+    <row r="21" ht="22.05" customHeight="1" spans="1:14">
+      <c r="A21" s="20">
         <v>1</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="B21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+    </row>
+    <row r="22" ht="22.05" customHeight="1" spans="1:14">
+      <c r="A22" s="20">
         <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="B22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+    </row>
+    <row r="23" ht="22.05" customHeight="1" spans="1:14">
+      <c r="A23" s="20">
         <v>3</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="B23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+    </row>
+    <row r="24" ht="22.05" customHeight="1" spans="1:14">
+      <c r="A24" s="20">
         <v>4</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-    </row>
-    <row r="25" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="B24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="31"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="36"/>
+    </row>
+    <row r="26" ht="22.05" customHeight="1" spans="1:14">
+      <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="B26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+    </row>
+    <row r="27" ht="22.05" customHeight="1" spans="1:14">
+      <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="B27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A19:K19"/>
+  <mergeCells count="9">
+    <mergeCell ref="D1:N1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A20:N20"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A8:K8"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>